--- a/assets/stages/maps/MapEditor/Room3.xlsx
+++ b/assets/stages/maps/MapEditor/Room3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\互联网应用实践\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB27C77-0666-47A3-AE2F-EC82429AAC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECBF5E4-D163-4A26-A8DA-BE600CCA610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,6 +81,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -94,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -109,6 +115,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -536,94 +545,94 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF2" s="1">
         <v>1</v>
@@ -634,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>-1</v>
@@ -721,7 +730,7 @@
         <v>-1</v>
       </c>
       <c r="AE3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF3" s="1">
         <v>1</v>
@@ -732,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>-1</v>
@@ -819,10 +828,10 @@
         <v>-1</v>
       </c>
       <c r="AE4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -1287,7 +1296,7 @@
       <c r="W9" s="1">
         <v>1</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9" s="6">
         <v>1</v>
       </c>
       <c r="Y9" s="1">
@@ -1498,7 +1507,7 @@
       <c r="AB11" s="1">
         <v>1</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC11" s="6">
         <v>1</v>
       </c>
       <c r="AD11" s="1">
@@ -1516,94 +1525,94 @@
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF12" s="1">
         <v>1</v>
@@ -1614,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
         <v>-1</v>
@@ -1701,7 +1710,7 @@
         <v>-1</v>
       </c>
       <c r="AE13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF13" s="1">
         <v>1</v>
@@ -1712,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
         <v>-1</v>
@@ -1799,7 +1808,7 @@
         <v>-1</v>
       </c>
       <c r="AE14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF14" s="1">
         <v>1</v>
@@ -1810,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
         <v>-1</v>
@@ -1908,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
         <v>-1</v>
@@ -2199,7 +2208,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AC1:AF3 C2:AE3 B2:B16 A3:Z4 C3:U5 Z3:Z10 C4:AF4 C4:F17 U5:AF5 C5:H14 A5:B18 C6:Q7 S6:AF7 I6:I8 M6:M8 R6:R8 C8:G16 B7:AF12 AE2:AE10 A1:AC2 G3:AC6 C12:AF18 V5:AF12">
+  <conditionalFormatting sqref="A1:AC2 AC1:AF3 C2:AE3 AE2:AE10 B2:B16 A3:Z4 C3:U5 G3:AC6 Z3:Z10 C4:AF4 C4:F17 U5:AF5 V5:AF12 C5:H14 A5:B18 C6:Q7 S6:AF7 I6:I8 M6:M8 R6:R8 C8:G16 C12:AF18 B7:AF12 B2:AD2">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -2221,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4905B0EA-B01B-4E77-AA7D-C9D770F6509D}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/assets/stages/maps/MapEditor/Room3.xlsx
+++ b/assets/stages/maps/MapEditor/Room3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\互联网应用实践\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECBF5E4-D163-4A26-A8DA-BE600CCA610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5308583-F12A-46E3-825F-2A0F4566086D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,11 +438,12 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+      <selection activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1246,19 +1251,19 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
@@ -2208,7 +2213,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:AC2 AC1:AF3 C2:AE3 AE2:AE10 B2:B16 A3:Z4 C3:U5 G3:AC6 Z3:Z10 C4:AF4 C4:F17 U5:AF5 V5:AF12 C5:H14 A5:B18 C6:Q7 S6:AF7 I6:I8 M6:M8 R6:R8 C8:G16 C12:AF18 B7:AF12 B2:AD2">
+  <conditionalFormatting sqref="A1:AC2 AC1:AF3 B2:AD2 C2:AE3 AE2:AE10 B2:B16 A3:Z4 C3:U5 G3:AC6 Z3:Z10 C4:AF4 C4:F17 U5:AF5 V5:AF12 C5:H14 A5:B18 C6:Q7 S6:AF7 I6:I8 M6:M8 R6:R8 B7:AF12 C8:G16 C12:AF18">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>

--- a/assets/stages/maps/MapEditor/Room3.xlsx
+++ b/assets/stages/maps/MapEditor/Room3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC848D6-5D4B-4778-9F83-93427BE88BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC677D8-264F-42B6-9C02-6DB5EC05018B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3744" yWindow="3180" windowWidth="23040" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,13 +430,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -829,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="AF4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -837,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>-1</v>
@@ -891,16 +890,16 @@
         <v>-1</v>
       </c>
       <c r="T5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="U5" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X5" s="1">
         <v>-1</v>
@@ -912,10 +911,10 @@
         <v>-1</v>
       </c>
       <c r="AA5" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="1">
         <v>-1</v>
@@ -924,10 +923,10 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -935,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>-1</v>
@@ -971,16 +970,16 @@
         <v>-1</v>
       </c>
       <c r="N6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="O6" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R6" s="1">
         <v>-1</v>
@@ -1010,7 +1009,7 @@
         <v>-1</v>
       </c>
       <c r="AA6" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="1">
         <v>-1</v>
@@ -1022,10 +1021,10 @@
         <v>-1</v>
       </c>
       <c r="AE6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1033,94 +1032,94 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF7" s="1">
         <v>1</v>
@@ -1131,94 +1130,94 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF8" s="1">
         <v>1</v>
@@ -1229,52 +1228,52 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G9" s="1">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="H9" s="1">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="I9" s="1">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J9" s="1">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="K9" s="1">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R9" s="1">
         <v>1</v>
@@ -1283,31 +1282,31 @@
         <v>1</v>
       </c>
       <c r="T9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
-      </c>
-      <c r="X9" s="6">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>-1</v>
       </c>
       <c r="Y9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB9" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC9" s="1">
         <v>1</v>
@@ -1327,85 +1326,85 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC10" s="1">
         <v>1</v>
@@ -1425,37 +1424,37 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
@@ -1464,55 +1463,55 @@
         <v>1</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>-1</v>
       </c>
       <c r="AD11" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="1">
         <v>1</v>
@@ -1526,88 +1525,88 @@
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L12" s="1">
         <v>3</v>
       </c>
       <c r="M12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12" s="1">
         <v>3</v>
       </c>
       <c r="P12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Q12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="S12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="T12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="U12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="V12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AB12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AC12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AD12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AE12" s="1">
         <v>3</v>
@@ -1639,10 +1638,10 @@
         <v>-1</v>
       </c>
       <c r="H13" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1">
         <v>-1</v>
@@ -1731,16 +1730,16 @@
         <v>-1</v>
       </c>
       <c r="F14" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1">
         <v>-1</v>
@@ -1806,10 +1805,10 @@
         <v>-1</v>
       </c>
       <c r="AE14" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AF14" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -1904,10 +1903,10 @@
         <v>-1</v>
       </c>
       <c r="AE15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF15" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
@@ -2002,10 +2001,10 @@
         <v>-1</v>
       </c>
       <c r="AE16" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF16" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -2046,37 +2045,37 @@
         <v>1</v>
       </c>
       <c r="M17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X17" s="1">
         <v>1</v>
@@ -2147,31 +2146,31 @@
         <v>1</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W18" s="1">
         <v>1</v>
@@ -2206,7 +2205,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:AC2 AC1:AF3 B2:AD2 C2:AE3 AE2:AE10 B2:B16 A3:Z4 C3:U5 G3:AC6 Z3:Z10 C4:AF4 C4:F17 U5:AF5 V5:AF12 C5:H14 A5:B18 C6:Q7 S6:AF7 I6:I8 M6:M8 R6:R8 B7:AF12 C8:G16 C12:AF18">
+  <conditionalFormatting sqref="B2:B16 U4:V6 C4:F17 C5:H14 A5:B18 I6:I8 M6:M8 Q6:Q8 C8:G16 U11:V12 AE11:AE16 A1:AC2 C2:AE3 Q7:S7 C12:AF18 C4:T5 A3:Z3 Y4:Y8 A4:AB4 C6:P7 C7:O8 C9:Z11 N8:X8 R6:AA7 G6:T6 T5:AA5 V9:AF12 U5:AB8 AC1:AF8">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -2229,7 +2228,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2264,6 +2263,9 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
@@ -2399,9 +2401,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="2">
-        <v>3</v>
-      </c>
+      <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -2435,9 +2435,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="2">
-        <v>3</v>
-      </c>
+      <c r="AF6" s="2"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -2503,7 +2501,9 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
+      <c r="AD8" s="6">
+        <v>5</v>
+      </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="2"/>
     </row>
@@ -2706,6 +2706,9 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="3"/>
+      <c r="AF14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -2739,7 +2742,9 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="4"/>
-      <c r="AF15" s="2"/>
+      <c r="AF15" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -2773,7 +2778,9 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="2"/>
+      <c r="AF16" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -2865,25 +2872,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A5:AF15"/>
+  <dimension ref="AC2:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="32" width="2.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AF15">
-        <v>1</v>
+    <row r="2" spans="29:30" x14ac:dyDescent="0.25">
+      <c r="AD2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="29:30" x14ac:dyDescent="0.25">
+      <c r="AC10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/assets/stages/maps/MapEditor/Room3.xlsx
+++ b/assets/stages/maps/MapEditor/Room3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC677D8-264F-42B6-9C02-6DB5EC05018B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F869CC36-60D1-46CB-B248-AD5B6D4F029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="3180" windowWidth="23040" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="23040" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2205,7 +2205,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B16 U4:V6 C4:F17 C5:H14 A5:B18 I6:I8 M6:M8 Q6:Q8 C8:G16 U11:V12 AE11:AE16 A1:AC2 C2:AE3 Q7:S7 C12:AF18 C4:T5 A3:Z3 Y4:Y8 A4:AB4 C6:P7 C7:O8 C9:Z11 N8:X8 R6:AA7 G6:T6 T5:AA5 V9:AF12 U5:AB8 AC1:AF8">
+  <conditionalFormatting sqref="A1:AC2 AC1:AF8 C2:AE3 B2:B16 A3:Z3 A4:AB4 C4:T5 U4:V6 Y4:Y8 C4:F17 T5:AA5 U5:AB8 C5:H14 A5:B18 G6:T6 C6:P7 R6:AA7 I6:I8 M6:M8 Q6:Q8 Q7:S7 C7:O8 N8:X8 C8:G16 C9:Z11 V9:AF12 U11:V12 AE11:AE16 C12:AF18">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -2872,22 +2872,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="AC2:AD10"/>
+  <dimension ref="AE13:AF13"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="29:30" x14ac:dyDescent="0.25">
-      <c r="AD2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="29:30" x14ac:dyDescent="0.25">
-      <c r="AC10">
-        <v>8</v>
+    <row r="13" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE13">
+        <v>7</v>
+      </c>
+      <c r="AF13">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/assets/stages/maps/MapEditor/Room3.xlsx
+++ b/assets/stages/maps/MapEditor/Room3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dusti\Documents\Programming\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F869CC36-60D1-46CB-B248-AD5B6D4F029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3559221-1E8E-41AD-9D5A-CA6E4403261B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="23040" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -430,16 +430,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AC11:AD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -537,125 +537,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
         <v>-1</v>
@@ -730,30 +730,30 @@
         <v>3</v>
       </c>
       <c r="AF3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1">
         <v>-1</v>
@@ -828,30 +828,30 @@
         <v>3</v>
       </c>
       <c r="AF4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
         <v>-1</v>
@@ -926,30 +926,30 @@
         <v>3</v>
       </c>
       <c r="AF5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
         <v>-1</v>
@@ -1009,7 +1009,7 @@
         <v>-1</v>
       </c>
       <c r="AA6" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB6" s="1">
         <v>-1</v>
@@ -1024,30 +1024,30 @@
         <v>3</v>
       </c>
       <c r="AF6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
         <v>-1</v>
@@ -1122,30 +1122,30 @@
         <v>3</v>
       </c>
       <c r="AF7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>-1</v>
@@ -1220,30 +1220,30 @@
         <v>3</v>
       </c>
       <c r="AF8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>-1</v>
@@ -1321,9 +1321,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1419,9 +1419,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -1505,21 +1505,21 @@
         <v>-1</v>
       </c>
       <c r="AC11" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AD11" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AE11" s="1">
         <v>3</v>
       </c>
       <c r="AF11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -1603,21 +1603,21 @@
         <v>-1</v>
       </c>
       <c r="AC12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AD12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AE12" s="1">
         <v>3</v>
       </c>
       <c r="AF12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -1701,21 +1701,21 @@
         <v>-1</v>
       </c>
       <c r="AC13" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AD13" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AE13" s="1">
         <v>3</v>
       </c>
       <c r="AF13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -1811,9 +1811,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -1909,9 +1909,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -2007,7 +2007,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="N17" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="O17" s="1">
         <v>-1</v>
@@ -2072,7 +2072,7 @@
         <v>-1</v>
       </c>
       <c r="V17" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W17" s="1">
         <v>3</v>
@@ -2105,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18" s="1">
         <v>3</v>
@@ -2173,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="W18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X18" s="1">
         <v>1</v>
@@ -2205,7 +2205,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:AC2 AC1:AF8 C2:AE3 B2:B16 A3:Z3 A4:AB4 C4:T5 U4:V6 Y4:Y8 C4:F17 T5:AA5 U5:AB8 C5:H14 A5:B18 G6:T6 C6:P7 R6:AA7 I6:I8 M6:M8 Q6:Q8 Q7:S7 C7:O8 N8:X8 C8:G16 C9:Z11 V9:AF12 U11:V12 AE11:AE16 C12:AF18">
+  <conditionalFormatting sqref="A1:AC2 C2:AE3 B2:B16 A3:Z3 A4:AB4 C4:T5 U4:V6 Y4:Y8 C4:F17 T5:AA5 U5:AB8 C5:H14 A5:B18 G6:T6 C6:P7 I6:I8 M6:M8 Q6:Q8 Q7:S7 C7:O8 N8:X8 C9:Z11 U11:V12 AE11:AE16 C12:AF18 A3:A16 B2:AE2 AC1:AF8 AF11:AF13 C3:E8 F3:G7 C8:G16 A8:E10 R6:AA7 V9:AF12 AC11:AD13">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -2231,12 +2231,12 @@
       <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2270,7 +2270,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2303,7 +2303,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2336,7 +2336,7 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2369,7 +2369,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2403,7 +2403,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2437,7 +2437,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2471,7 +2471,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2507,7 +2507,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2541,7 +2541,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2575,7 +2575,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2608,7 +2608,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2641,7 +2641,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="3"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2674,7 +2674,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="3"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2710,7 +2710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2746,7 +2746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2782,7 +2782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2816,7 +2816,7 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2863,7 +2863,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2872,19 +2872,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="AE13:AF13"/>
+  <dimension ref="AE13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="13" spans="31:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="31:31" x14ac:dyDescent="0.4">
       <c r="AE13">
-        <v>7</v>
-      </c>
-      <c r="AF13">
         <v>7</v>
       </c>
     </row>
